--- a/R/files_12_data_visualization/file04_bubble_chart.xlsx
+++ b/R/files_12_data_visualization/file04_bubble_chart.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files_11_data_visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markuiz/GitHub.jpg/CureQ/data_analysis_bml/R/files_12_data_visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D510F6FE-619E-40B0-85F3-0EC9BD8A9C28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98865126-C165-B649-B2AC-D7EEE9E0F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="33360" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="2" r:id="rId1"/>
+    <sheet name="file04_bubble_chart" sheetId="2" r:id="rId1"/>
     <sheet name="chart" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,43 +26,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Fruit</t>
+    <t>Method</t>
   </si>
   <si>
-    <t>Sugar Content (g/serving)</t>
+    <t>Lowry</t>
   </si>
   <si>
-    <t>Apple</t>
+    <t>Bradford</t>
   </si>
   <si>
-    <t>Banana</t>
+    <t>BCA</t>
   </si>
   <si>
-    <t>Orange</t>
+    <t>UV/VIS</t>
   </si>
   <si>
-    <t>Strawberry</t>
+    <t>Kjedahl</t>
   </si>
   <si>
-    <t>Blueberry</t>
+    <t>Analysis time (min)</t>
   </si>
   <si>
-    <t>Grape</t>
+    <t>Protein concentration (mg/ml)</t>
   </si>
   <si>
-    <t>Number of servings per year</t>
-  </si>
-  <si>
-    <t>Vitamin C content (mg/serving)</t>
+    <t>Number of Analyses per day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +67,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +104,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +144,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -210,21 +241,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDB73045-2A99-4881-8C04-6EBD262D2026}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E9D01F50-E1C8-7349-B1EC-5603882DF6B6}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{71BDBE66-FE84-4304-A26E-37FCCB253982}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{C7305C33-440F-314F-9749-338BF1AA014F}" type="BUBBLESIZE">
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -253,21 +284,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{594DF7EC-F176-4A8C-A39E-A87DCF6B9060}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CE47EA4B-A2EF-6E49-A8E3-090033D8EEAC}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{4F508CE9-5B8C-4176-81EC-0F45199DF5A1}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{5E72FC65-1EB6-8142-8C2D-E0ED77C10FBB}" type="BUBBLESIZE">
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -296,21 +327,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57F372BB-A09C-4200-958E-EBCFBB28DA4D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{13A886F3-68BD-8144-98CA-3DEDD229FBD4}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{C3C56DED-6C14-4424-BF46-5823E1202582}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{8C43E55C-F502-5E44-A0CA-34CD61AB216A}" type="BUBBLESIZE">
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -339,21 +370,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3926460-8CDE-4D8F-9150-D58975E3A65D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2E426118-4F53-A840-8214-D8A43CF039FE}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{F4609C07-427C-416A-A5ED-40549E32DD38}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{EC752AF9-4415-B344-A6E9-9956B598E7CE}" type="BUBBLESIZE">
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -382,21 +413,21 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B81BF0E2-2F72-4978-813A-AFCE9CCF480F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5C3776BB-76DC-5A41-9514-CD46BD6F90F8}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{2B090EFA-4E6A-48B4-B11B-60BE965896FB}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{3FA61C3C-4DB9-AD48-B1E7-352D43C8E374}" type="BUBBLESIZE">
+                      <a:rPr lang="en-GB" baseline="0"/>
                       <a:pPr/>
                       <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -425,21 +456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17BD5B63-4B6C-40DF-ADEC-ED03078FBFDF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>; </a:t>
-                    </a:r>
-                    <a:fld id="{54192465-8242-4BF5-B158-051A0D14B5B2}" type="BUBBLESIZE">
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[BUBBLE SIZE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -452,7 +469,6 @@
               <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -508,81 +524,72 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$B$2:$B$7</c:f>
+              <c:f>file04_bubble_chart!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$C$2:$C$7</c:f>
+              <c:f>file04_bubble_chart!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.3</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.2</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.8</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78.3</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>data!$D$2:$D$7</c:f>
+              <c:f>file04_bubble_chart!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>305</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,26 +598,23 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>data!$A$2:$A$7</c15:f>
+                <c15:f>file04_bubble_chart!$A$2:$A$7</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>Apple</c:v>
+                    <c:v>Lowry</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Banana</c:v>
+                    <c:v>Bradford</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Orange</c:v>
+                    <c:v>BCA</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Strawberry</c:v>
+                    <c:v>UV/VIS</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Blueberry</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Grape</c:v>
+                    <c:v>Kjedahl</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1570,10 +1574,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{881703BE-86EF-4F06-BF61-FF14488F0451}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{881703BE-86EF-4F06-BF61-FF14488F0451}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3A152A5A-18FF-4D2C-BA46-ED0CE4C07501}" name="Fruit"/>
-    <tableColumn id="2" xr3:uid="{DE03F0ED-CD42-49D5-BC60-BF0A01C46AD3}" name="Sugar Content (g/serving)"/>
-    <tableColumn id="3" xr3:uid="{D53616CF-01D1-4AE9-AD18-1337F79EF190}" name="Vitamin C content (mg/serving)"/>
-    <tableColumn id="4" xr3:uid="{58BEAA85-2989-45BA-83D5-4FF767E55476}" name="Number of servings per year"/>
+    <tableColumn id="1" xr3:uid="{3A152A5A-18FF-4D2C-BA46-ED0CE4C07501}" name="Method"/>
+    <tableColumn id="2" xr3:uid="{DE03F0ED-CD42-49D5-BC60-BF0A01C46AD3}" name="Analysis time (min)"/>
+    <tableColumn id="3" xr3:uid="{D53616CF-01D1-4AE9-AD18-1337F79EF190}" name="Protein concentration (mg/ml)"/>
+    <tableColumn id="4" xr3:uid="{58BEAA85-2989-45BA-83D5-4FF767E55476}" name="Number of Analyses per day"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1842,116 +1846,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E767319E-3417-41A2-80A4-ECCE0A4DC481}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>8.4</v>
-      </c>
-      <c r="D2">
-        <v>305</v>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>10.3</v>
-      </c>
-      <c r="D3">
-        <v>212</v>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C4">
-        <v>83.2</v>
-      </c>
-      <c r="D4">
-        <v>72</v>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>7.1</v>
-      </c>
-      <c r="C5">
-        <v>58.8</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6">
-        <v>16.2</v>
-      </c>
-      <c r="C6">
-        <v>28.4</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>15.5</v>
-      </c>
-      <c r="C7">
-        <v>78.3</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -1966,11 +1956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DBD765-49C3-4EDE-9EAF-032410B7A2C4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
